--- a/biology/Médecine/Archives_de_l'AP-HP/Archives_de_l'AP-HP.xlsx
+++ b/biology/Médecine/Archives_de_l'AP-HP/Archives_de_l'AP-HP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Archives_de_l%27AP-HP</t>
+          <t>Archives_de_l'AP-HP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les archives de l’AP-HP sont un service de l’Assistance publique – Hôpitaux de Paris. Ce service est l'une des deux composantes du Département des patrimoines culturels (DPC), la seconde étant le Musée de l'Assistance publique - Hôpitaux de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Archives_de_l%27AP-HP</t>
+          <t>Archives_de_l'AP-HP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C’est au XVIIe siècle que fut créé à l'Hôtel-Dieu un poste d’archiviste, dont les fonds trouvèrent place dans un bâtiment dédié en 1733.
-A la création du Conseil général des hôpitaux et hospices de Paris, les archives de l'Hôtel-Dieu, de l'hôpital général et des Incurables furent regroupées[1].
-Le 25 mai 1871, l'incendie du siège de l'Assistance publique[2],[3] rue Victoria, durant la semaine sanglante, détruisit les ¾ de ces fonds. Le service lance vers 1905, une grande collecte d’archives encore stockées dans les bureaux de l’administration et des hôpitaux. Papiers et registres entrèrent dès lors plus régulièrement aux Archives. 
+A la création du Conseil général des hôpitaux et hospices de Paris, les archives de l'Hôtel-Dieu, de l'hôpital général et des Incurables furent regroupées.
+Le 25 mai 1871, l'incendie du siège de l'Assistance publique, rue Victoria, durant la semaine sanglante, détruisit les ¾ de ces fonds. Le service lance vers 1905, une grande collecte d’archives encore stockées dans les bureaux de l’administration et des hôpitaux. Papiers et registres entrèrent dès lors plus régulièrement aux Archives. 
 En 1941, les Archives s’installèrent rue des Minimes dans le 3e arrondissement de Paris.
 En 1983 fut ouverte une annexe de grande capacité à l’hôpital de Bicêtre, pour accueillir les séries volumineuses.  
 En 2004, la photothèque de l’AP-HP vint compléter le service. 
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Archives_de_l%27AP-HP</t>
+          <t>Archives_de_l'AP-HP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,52 +567,199 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonds anciens (XIIIe siècle – XVIIIe siècle)
-Hôtel-Dieu ancien[4] ; Saint-Jacques-aux-Pèlerins[5] ; Hôpital Général[6] ; Incurables ; Trinité ; Enfants-Rouges[7] ; Enfants-Trouvés[8] ; Saint-Esprit-en-Grève[9] ; série Fosseyeux, issue des collectes du début du XXe siècle ; inventaires analytiques et transcriptions anciennes de documents détruits en 1871. Ces fonds portent sur le patrimoine des établissements (dons et legs, achats), leurs privilèges, leur administration quotidienne, plus rarement la population accueillie.
-Archives administratives (postérieures à 1790)
-Ces fonds abondants témoignent, pour les hôpitaux, hospices, maisons de retraite, sanatorium et fondations qui composent l’AP-HP : 
+          <t>Fonds anciens (XIIIe siècle – XVIIIe siècle)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hôtel-Dieu ancien ; Saint-Jacques-aux-Pèlerins ; Hôpital Général ; Incurables ; Trinité ; Enfants-Rouges ; Enfants-Trouvés ; Saint-Esprit-en-Grève ; série Fosseyeux, issue des collectes du début du XXe siècle ; inventaires analytiques et transcriptions anciennes de documents détruits en 1871. Ces fonds portent sur le patrimoine des établissements (dons et legs, achats), leurs privilèges, leur administration quotidienne, plus rarement la population accueillie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archives_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archives_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composition des fonds</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Archives administratives (postérieures à 1790)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces fonds abondants témoignent, pour les hôpitaux, hospices, maisons de retraite, sanatorium et fondations qui composent l’AP-HP : 
 de la prise en charge administrative des patients, grâce aux collections de répertoires et de registres dits « de population », recensant entrées, sorties, naissances et décès ;
 de la vie des établissements, grâce aux archives du personnel, de l’économat, des finances, etc.
 Ils renseignent sur l’administration centrale de l'AP-HP, sa direction  et l’exercice de ses tutelles, ainsi que sur ses services généraux (magasin général, blanchisserie, boucherie, pharmacie centrale, etc.), ses écoles et centres de formation. 
 Sont aussi réunis les fonds des services de l’Assistance publique jusqu’à son rattachement à la Ville de Paris en 1969 : service des enfants-assistés, direction des nourrices, secours à domicile, bureaux de bienfaisance. S’y ajoutent quelques dons d’archives privées.
-Archives médicales
-Le service des Archives conserve un ensemble unique d'archives médicales historiques, datant du XVIIIe siècle à nos jours, qui comprend des échantillons de dossiers médicaux et des registres à caractère médical (registres de salles de travail, comptes rendus opératoires, laboratoires). 
-Archives iconographiques
-Une collection importante d’images sur divers supports illustre tous les aspects de la vie hospitalière depuis le début du XXe siècle : architecture intérieure et extérieure, matériels, pratiques de soins, vie des services, portraits, événements, etc. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Archives_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archives_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Composition des fonds</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Archives médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le service des Archives conserve un ensemble unique d'archives médicales historiques, datant du XVIIIe siècle à nos jours, qui comprend des échantillons de dossiers médicaux et des registres à caractère médical (registres de salles de travail, comptes rendus opératoires, laboratoires). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Archives_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archives_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Composition des fonds</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Archives iconographiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une collection importante d’images sur divers supports illustre tous les aspects de la vie hospitalière depuis le début du XXe siècle : architecture intérieure et extérieure, matériels, pratiques de soins, vie des services, portraits, événements, etc. 
 Une riche série de plans d'établissements, surtout d’Ancien Régime et du XIXe siècle, des affiches, des films la complètent. 
-Bibliothèque
-Elle comprend plus de 30 000 ouvrages et 500 périodiques ou revues relatifs à l'histoire des hôpitaux, de la bienfaisance et des secours aux plus démunis.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Archives_de_l%27AP-HP</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Archives_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Archives_de_l%27AP-HP</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Composition des fonds</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bibliothèque</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle comprend plus de 30 000 ouvrages et 500 périodiques ou revues relatifs à l'histoire des hôpitaux, de la bienfaisance et des secours aux plus démunis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Archives_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archives_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Fonds numérisés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les fonds numérisés[10] consultables en salle de lecture sont les suivants :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les fonds numérisés consultables en salle de lecture sont les suivants :
 Registres de population des hôpitaux (antérieurs à 1870)
 Recueil des arrêtés et circulaires (1849-1935)
 Photographies et cartes postales des établissements de l’AP-HP
@@ -606,31 +767,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Archives_de_l%27AP-HP</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Archives_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Archives_de_l%27AP-HP</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Liste des directeurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Florence Greffe
 Valérie Poinsotte (1988-1995)
